--- a/data/s_vals/2022/castellanos_humberto.xlsx
+++ b/data/s_vals/2022/castellanos_humberto.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6717081370404667</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.504234352899367</v>
+        <v>11.37104958465707</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C3" t="n">
-        <v>3.335469364252891</v>
+        <v>10.34677158129881</v>
       </c>
       <c r="D3" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E3" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>11.1525376406995</v>
+        <v>1169.06105627184</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/castellanos_humberto.xlsx
+++ b/data/s_vals/2022/castellanos_humberto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>11.37104958465707</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>1169.06105627184</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/castellanos_humberto.xlsx
+++ b/data/s_vals/2022/castellanos_humberto.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1190320826869504</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.37104958465707</v>
+        <v>15.00683182090255</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C3" t="n">
-        <v>10.34677158129881</v>
+        <v>9.983522426115931</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E3" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1169.06105627184</v>
+        <v>2829.538464788739</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
